--- a/Punkte.xlsx
+++ b/Punkte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8aeaf44f51186dc5/Desktop/CG_Übung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_AD4DB114E441178AC67DF4034E52DF9C693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5E70B7B-3420-4CE6-A971-A3B6DA779AB6}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_AD4DB114E441178AC67DF4034E52DF9C693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8329AEBA-90F3-40B1-9BC0-68BDB86C9F16}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,11 +486,9 @@
         <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11">
@@ -503,12 +501,8 @@
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="3">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4">
-        <v>10</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13">
@@ -520,11 +514,11 @@
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <f>SUM(C4:C13) / 100</f>
-        <v>0.59499999999999997</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D14" s="1">
         <f>SUM(D4:D13) / 100</f>
-        <v>0.57499999999999996</v>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
